--- a/data/(原始表格)建筑设备监控及能源管理报价清单(3).xlsx
+++ b/data/(原始表格)建筑设备监控及能源管理报价清单(3).xlsx
@@ -10,8 +10,8 @@
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1 (2)'!$A$4:$J$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1 (2)'!$A$1:$J$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1 (2)'!$A$4:$J$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1 (2)'!$A$1:$J$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>投标报价函</t>
   </si>
@@ -95,6 +95,12 @@
     <t>1.名称:室内CO2传感器
 2.规格：485传输方式，量程0-2000ppm ；输出信号 4~20mA / 2~10VDC；精度±5%  @25C. 50% RH（0~100  ppm），485通讯
 3.施工要求:按照图纸、规范及清单要求配置并施工调试到位，并达到验收使用要求。</t>
+  </si>
+  <si>
+    <t>温湿度传感器</t>
+  </si>
+  <si>
+    <t>湿度精度：2%</t>
   </si>
   <si>
     <t>室内PM传感器</t>
@@ -1737,12 +1743,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1866,7 +1872,7 @@
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="39">
-        <f>E6*F6</f>
+        <f t="shared" ref="G6:G8" si="0">E6*F6</f>
         <v>0</v>
       </c>
       <c r="H6" s="40"/>
@@ -1893,7 +1899,7 @@
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="39">
-        <f>E7*F7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="40"/>
@@ -1902,10 +1908,8 @@
       </c>
       <c r="J7" s="49"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="45" spans="1:10">
-      <c r="A8" s="43">
-        <v>37</v>
-      </c>
+    <row r="8" s="2" customFormat="1" ht="27" spans="1:10">
+      <c r="A8" s="43"/>
       <c r="B8" s="44" t="s">
         <v>20</v>
       </c>
@@ -1920,7 +1924,7 @@
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="39">
-        <f>E8*F8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="40"/>
@@ -1929,26 +1933,36 @@
       </c>
       <c r="J8" s="49"/>
     </row>
-    <row r="9" ht="14.25" spans="1:10">
-      <c r="A9" s="50" t="s">
+    <row r="9" s="2" customFormat="1" ht="45" spans="1:10">
+      <c r="A9" s="43">
+        <v>37</v>
+      </c>
+      <c r="B9" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54">
-        <f>SUM(G6:G8)</f>
+      <c r="C9" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="47">
+        <v>53</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39">
+        <f>E9*F9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="56"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" ht="14.25" spans="1:10">
       <c r="A10" s="50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="52"/>
@@ -1956,16 +1970,16 @@
       <c r="E10" s="50"/>
       <c r="F10" s="53"/>
       <c r="G10" s="54">
-        <f>G9*0.09</f>
+        <f>SUM(G6:G9)</f>
         <v>0</v>
       </c>
       <c r="H10" s="55"/>
-      <c r="I10" s="57"/>
+      <c r="I10" s="48"/>
       <c r="J10" s="56"/>
     </row>
     <row r="11" ht="14.25" spans="1:10">
       <c r="A11" s="50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="51"/>
       <c r="C11" s="52"/>
@@ -1973,42 +1987,43 @@
       <c r="E11" s="50"/>
       <c r="F11" s="53"/>
       <c r="G11" s="54">
-        <f>G9+G10</f>
+        <f>G10*0.09</f>
         <v>0</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="57"/>
       <c r="J11" s="56"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
+    <row r="12" ht="14.25" spans="1:10">
+      <c r="A12" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54">
+        <f>G10+G11</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="55"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="56"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:10">
-      <c r="A13" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:10">
       <c r="A14" s="63" t="s">
@@ -2016,79 +2031,95 @@
       </c>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="74" t="s">
-        <v>30</v>
-      </c>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="70"/>
       <c r="J14" s="71"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="75" t="s">
+    <row r="15" s="1" customFormat="1" spans="1:10">
+      <c r="A15" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="80"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="71"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="87"/>
+      <c r="A16" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="76"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="80"/>
     </row>
-    <row r="17" s="3" customFormat="1" ht="243" customHeight="1" spans="1:10">
-      <c r="A17" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
+    <row r="17" spans="1:10">
+      <c r="A17" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="87"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="243" customHeight="1" spans="1:10">
+      <c r="A18" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:J17" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:J18" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="14">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:J13"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape"/>
